--- a/TEST DATA/Sir Elton/Sample_3/wh2_soh_data.xlsx
+++ b/TEST DATA/Sir Elton/Sample_3/wh2_soh_data.xlsx
@@ -5,31 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis(Work)\Desktop\TEST DATA\Sir Elton\Sample_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MBPI-Projects\RM-Consumption-Management-System\TEST DATA\Sir Elton\Sample_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB90F1F2-9250-447F-AEDD-51E51ABCB017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446D012-D94C-4AA4-954D-3370427B1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -71,9 +60,6 @@
     <t>Y124</t>
   </si>
   <si>
-    <t xml:space="preserve">HDPE LMI </t>
-  </si>
-  <si>
     <t>Kraft Bag Big</t>
   </si>
   <si>
@@ -87,6 +73,9 @@
   </si>
   <si>
     <t>fb5ab272-67f5-4bcf-902a-974fe1f82186</t>
+  </si>
+  <si>
+    <t>HDPE LMI</t>
   </si>
 </sst>
 </file>
@@ -169,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,12 +171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,18 +457,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,191 +482,191 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>500</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>300</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>225</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>75</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2260</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2850</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>300</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1400</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>225</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>75</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2260</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2850</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="4">
+        <v>200</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7">
-        <v>200</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="4">
+        <v>2584</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
-        <v>2584</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>450</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
